--- a/target/classes/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/target/classes/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/Workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Test_Automation\src\main\resources\testdesign\testdata\application\EPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{5748B4CD-9F7F-4145-A2F6-C8EEA5BC442D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0FE8AC64-A69F-4F52-9152-E095B4457783}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C80B9EC-7848-4DB9-91BA-8058EF03E518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -18,8 +18,12 @@
     <sheet name="EPP_TC002" sheetId="2" r:id="rId3"/>
     <sheet name="EPP_TC003" sheetId="5" r:id="rId4"/>
     <sheet name="EPP_TC004" sheetId="6" r:id="rId5"/>
+    <sheet name="EPP_TC005" sheetId="8" r:id="rId6"/>
+    <sheet name="EPP_TC006" sheetId="9" r:id="rId7"/>
+    <sheet name="EPP_TC007" sheetId="11" r:id="rId8"/>
+    <sheet name="EPP_TC008" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="99">
   <si>
     <t>TestID</t>
   </si>
@@ -67,12 +71,6 @@
     <t>Outgoing High Value Bank Payment (FRB)</t>
   </si>
   <si>
-    <t>CreatePayTitle</t>
-  </si>
-  <si>
-    <t>Create Payment</t>
-  </si>
-  <si>
     <t>AccountNumber</t>
   </si>
   <si>
@@ -181,9 +179,6 @@
     <t>TC001</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>EPP_TC002</t>
   </si>
   <si>
@@ -202,21 +197,12 @@
     <t>BeneCustAddress</t>
   </si>
   <si>
-    <t>10/19/21</t>
-  </si>
-  <si>
     <t>What is the name of your first employer?|What is the last name of your favorite childhood neighbors?|What is your mother's maiden name?|What is the name of your high school?|What is your favorite sport?|In which city are you born?|What is the name of your best friend?</t>
   </si>
   <si>
     <t>employer|neighbors|name|school|sport|born|friend</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Incoming High Value Customer Payment (FRB)</t>
-  </si>
-  <si>
     <t>33442</t>
   </si>
   <si>
@@ -235,35 +221,122 @@
     <t>EPP_TC004</t>
   </si>
   <si>
-    <t>Incoming High Value Bank Payment (FRB)</t>
-  </si>
-  <si>
     <t>TC003</t>
   </si>
   <si>
     <t>TC004</t>
   </si>
   <si>
-    <t>17</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>EPP_TC005</t>
+  </si>
+  <si>
+    <t>TemplateOption</t>
+  </si>
+  <si>
+    <t>Duplicate Payments</t>
+  </si>
+  <si>
+    <t>ActionOnDuplicate</t>
+  </si>
+  <si>
+    <t>CancelPayment</t>
+  </si>
+  <si>
+    <t>CommentBox</t>
+  </si>
+  <si>
+    <t>CancelInitiator</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>CUST</t>
+  </si>
+  <si>
+    <t>WorkSummayOption</t>
+  </si>
+  <si>
+    <t>DuplicateTransactionStaus</t>
+  </si>
+  <si>
+    <t>ApprovalStaus</t>
+  </si>
+  <si>
+    <t>Payment Action Verification</t>
+  </si>
+  <si>
+    <t>Duplicate Content</t>
+  </si>
+  <si>
+    <t>ApprovePayment</t>
+  </si>
+  <si>
+    <t>EPP_TC006</t>
+  </si>
+  <si>
+    <t>EPP_TC007</t>
+  </si>
+  <si>
+    <t>RepairCommentBox</t>
+  </si>
+  <si>
+    <t>WorkPoolOption</t>
+  </si>
+  <si>
+    <t>Payment Repair</t>
+  </si>
+  <si>
+    <t>'Work Summary</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>EPP_TC008</t>
+  </si>
+  <si>
+    <t>Test3442</t>
+  </si>
+  <si>
+    <t>11/10/21</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>10/21/21</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>10/27/21</t>
+    <t>UpdatedAmount</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Payment Repair Verification</t>
+  </si>
+  <si>
+    <t>ApprovalDate</t>
+  </si>
+  <si>
+    <t>11/11/21</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,20 +353,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,18 +374,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -342,20 +402,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC8C8C8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,14 +426,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -668,7 +718,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +736,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,55 +746,56 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:BL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,22 +806,22 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>14</v>
@@ -794,121 +845,598 @@
         <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="W2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" s="10" t="s">
+      <c r="X2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="2"/>
-      <c r="I3" s="7" t="s">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F5" s="7"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="7"/>
+      <c r="BL5" s="7"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F6" s="7"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7"/>
+      <c r="BD6" s="7"/>
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="7"/>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="7"/>
+      <c r="BJ6" s="7"/>
+      <c r="BK6" s="7"/>
+      <c r="BL6" s="7"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F7" s="7"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="7"/>
+      <c r="BD7" s="7"/>
+      <c r="BE7" s="7"/>
+      <c r="BF7" s="7"/>
+      <c r="BG7" s="7"/>
+      <c r="BH7" s="7"/>
+      <c r="BI7" s="7"/>
+      <c r="BJ7" s="7"/>
+      <c r="BK7" s="7"/>
+      <c r="BL7" s="7"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="7"/>
+      <c r="BD8" s="7"/>
+      <c r="BE8" s="7"/>
+      <c r="BF8" s="7"/>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="7"/>
+      <c r="BI8" s="7"/>
+      <c r="BJ8" s="7"/>
+      <c r="BK8" s="7"/>
+      <c r="BL8" s="7"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="7"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+      <c r="BC10" s="7"/>
+      <c r="BD10" s="7"/>
+      <c r="BE10" s="7"/>
+      <c r="BF10" s="7"/>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7"/>
+      <c r="BI10" s="7"/>
+      <c r="BJ10" s="7"/>
+      <c r="BK10" s="7"/>
+      <c r="BL10" s="7"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="7"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -918,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,25 +1461,24 @@
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,46 +1492,46 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>35</v>
@@ -1016,33 +1543,30 @@
         <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -1050,38 +1574,38 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>36</v>
@@ -1089,77 +1613,66 @@
       <c r="T2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>57</v>
+      <c r="U2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1168,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1918199-7E3A-4323-8C10-36C29A5B5E5C}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" activeCellId="1" sqref="F9 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,27 +1692,15 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,192 +1711,76 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1404,10 +1789,93 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78D4517-CBEA-43D4-A710-8B83EE44DC85}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E6C225-5F63-43BC-9993-8FBD6FEAF794}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,25 +1884,25 @@
     <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,127 +1916,331 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3095139-3849-4A61-ADF7-1C18231D624A}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11E113-21EA-4C4D-A793-3B606F72173F}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.85546875" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="F2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CBD94B-4A03-44BE-9B34-689C34C8DA4A}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/classes/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/target/classes/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Test_Automation\src\main\resources\testdesign\testdata\application\EPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C80B9EC-7848-4DB9-91BA-8058EF03E518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1D230B-B68B-4EA6-88AB-65819EAB34E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="EPP_TC006" sheetId="9" r:id="rId7"/>
     <sheet name="EPP_TC007" sheetId="11" r:id="rId8"/>
     <sheet name="EPP_TC008" sheetId="12" r:id="rId9"/>
+    <sheet name="EPP_TC009" sheetId="13" r:id="rId10"/>
+    <sheet name="EPP_TC010" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="61">
   <si>
     <t>TestID</t>
   </si>
@@ -47,30 +49,12 @@
     <t>TC002</t>
   </si>
   <si>
-    <t>SubMenu</t>
-  </si>
-  <si>
-    <t>Payment Creation</t>
-  </si>
-  <si>
-    <t>PaymentTemplate</t>
-  </si>
-  <si>
     <t>SecurityQuestion1</t>
   </si>
   <si>
     <t>SecurityAnswer1</t>
   </si>
   <si>
-    <t>Unauthorized Access Warning</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Outgoing High Value Bank Payment (FRB)</t>
-  </si>
-  <si>
     <t>AccountNumber</t>
   </si>
   <si>
@@ -116,63 +100,12 @@
     <t>021000089</t>
   </si>
   <si>
-    <t>Menu</t>
-  </si>
-  <si>
-    <t>Manual Payments</t>
-  </si>
-  <si>
     <t>021000021</t>
   </si>
   <si>
-    <t>TemplateHeader</t>
-  </si>
-  <si>
-    <t>Work Summary</t>
-  </si>
-  <si>
-    <t>WorkSummaryHeader</t>
-  </si>
-  <si>
-    <t>WorkSummaryTemplate</t>
-  </si>
-  <si>
-    <t>Payment Creation Verification</t>
-  </si>
-  <si>
-    <t>BannerMessage</t>
-  </si>
-  <si>
-    <t>This transaction has been submitted for approval following manual creation</t>
-  </si>
-  <si>
-    <t>PaymentDetailsTab</t>
-  </si>
-  <si>
-    <t>Payment Details</t>
-  </si>
-  <si>
     <t>ValueDate</t>
   </si>
   <si>
-    <t>PaymentMenu</t>
-  </si>
-  <si>
-    <t>PaymentSubMenu</t>
-  </si>
-  <si>
-    <t>Payment Tracking</t>
-  </si>
-  <si>
-    <t>Transaction Inquiry</t>
-  </si>
-  <si>
-    <t>TransactionStaus</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>EPP_TC001</t>
   </si>
   <si>
@@ -182,9 +115,6 @@
     <t>EPP_TC002</t>
   </si>
   <si>
-    <t>Outgoing High Value Customer Payment (FRB)</t>
-  </si>
-  <si>
     <t>CustAccountNumber</t>
   </si>
   <si>
@@ -239,66 +169,12 @@
     <t>EPP_TC005</t>
   </si>
   <si>
-    <t>TemplateOption</t>
-  </si>
-  <si>
-    <t>Duplicate Payments</t>
-  </si>
-  <si>
-    <t>ActionOnDuplicate</t>
-  </si>
-  <si>
-    <t>CancelPayment</t>
-  </si>
-  <si>
-    <t>CommentBox</t>
-  </si>
-  <si>
-    <t>CancelInitiator</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>CUST</t>
-  </si>
-  <si>
-    <t>WorkSummayOption</t>
-  </si>
-  <si>
-    <t>DuplicateTransactionStaus</t>
-  </si>
-  <si>
-    <t>ApprovalStaus</t>
-  </si>
-  <si>
-    <t>Payment Action Verification</t>
-  </si>
-  <si>
-    <t>Duplicate Content</t>
-  </si>
-  <si>
-    <t>ApprovePayment</t>
-  </si>
-  <si>
     <t>EPP_TC006</t>
   </si>
   <si>
     <t>EPP_TC007</t>
   </si>
   <si>
-    <t>RepairCommentBox</t>
-  </si>
-  <si>
-    <t>WorkPoolOption</t>
-  </si>
-  <si>
-    <t>Payment Repair</t>
-  </si>
-  <si>
-    <t>'Work Summary</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -308,21 +184,12 @@
     <t>Test3442</t>
   </si>
   <si>
-    <t>11/10/21</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>UpdatedAmount</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Payment Repair Verification</t>
-  </si>
-  <si>
     <t>ApprovalDate</t>
   </si>
   <si>
@@ -330,6 +197,27 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>11/13/21</t>
+  </si>
+  <si>
+    <t>EPP_TC009</t>
+  </si>
+  <si>
+    <t>11/15/21</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>EPP_TC010</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>1258</t>
   </si>
 </sst>
 </file>
@@ -359,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,12 +257,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,14 +309,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,7 +611,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -746,12 +621,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +635,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL12"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F788E8B-CAB8-4367-99FC-CF2D134775AA}">
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,186 +648,534 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CF13A2-B3A9-4D53-BAC2-4D2BB08D36BF}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BA12"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:64" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -999,21 +1222,12 @@
       <c r="AY5" s="7"/>
       <c r="AZ5" s="7"/>
       <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="7"/>
-      <c r="BE5" s="7"/>
-      <c r="BF5" s="7"/>
-      <c r="BG5" s="7"/>
-      <c r="BH5" s="7"/>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="7"/>
-      <c r="BK5" s="7"/>
-      <c r="BL5" s="7"/>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1060,21 +1274,12 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="7"/>
       <c r="BA6" s="7"/>
-      <c r="BB6" s="7"/>
-      <c r="BC6" s="7"/>
-      <c r="BD6" s="7"/>
-      <c r="BE6" s="7"/>
-      <c r="BF6" s="7"/>
-      <c r="BG6" s="7"/>
-      <c r="BH6" s="7"/>
-      <c r="BI6" s="7"/>
-      <c r="BJ6" s="7"/>
-      <c r="BK6" s="7"/>
-      <c r="BL6" s="7"/>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1121,19 +1326,10 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="7"/>
       <c r="BA7" s="7"/>
-      <c r="BB7" s="7"/>
-      <c r="BC7" s="7"/>
-      <c r="BD7" s="7"/>
-      <c r="BE7" s="7"/>
-      <c r="BF7" s="7"/>
-      <c r="BG7" s="7"/>
-      <c r="BH7" s="7"/>
-      <c r="BI7" s="7"/>
-      <c r="BJ7" s="7"/>
-      <c r="BK7" s="7"/>
-      <c r="BL7" s="7"/>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1182,19 +1378,10 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="7"/>
       <c r="BA8" s="7"/>
-      <c r="BB8" s="7"/>
-      <c r="BC8" s="7"/>
-      <c r="BD8" s="7"/>
-      <c r="BE8" s="7"/>
-      <c r="BF8" s="7"/>
-      <c r="BG8" s="7"/>
-      <c r="BH8" s="7"/>
-      <c r="BI8" s="7"/>
-      <c r="BJ8" s="7"/>
-      <c r="BK8" s="7"/>
-      <c r="BL8" s="7"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1243,19 +1430,10 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="7"/>
       <c r="BA9" s="7"/>
-      <c r="BB9" s="7"/>
-      <c r="BC9" s="7"/>
-      <c r="BD9" s="7"/>
-      <c r="BE9" s="7"/>
-      <c r="BF9" s="7"/>
-      <c r="BG9" s="7"/>
-      <c r="BH9" s="7"/>
-      <c r="BI9" s="7"/>
-      <c r="BJ9" s="7"/>
-      <c r="BK9" s="7"/>
-      <c r="BL9" s="7"/>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -1304,19 +1482,10 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
-      <c r="BB10" s="7"/>
-      <c r="BC10" s="7"/>
-      <c r="BD10" s="7"/>
-      <c r="BE10" s="7"/>
-      <c r="BF10" s="7"/>
-      <c r="BG10" s="7"/>
-      <c r="BH10" s="7"/>
-      <c r="BI10" s="7"/>
-      <c r="BJ10" s="7"/>
-      <c r="BK10" s="7"/>
-      <c r="BL10" s="7"/>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1365,19 +1534,10 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="7"/>
       <c r="BA11" s="7"/>
-      <c r="BB11" s="7"/>
-      <c r="BC11" s="7"/>
-      <c r="BD11" s="7"/>
-      <c r="BE11" s="7"/>
-      <c r="BF11" s="7"/>
-      <c r="BG11" s="7"/>
-      <c r="BH11" s="7"/>
-      <c r="BI11" s="7"/>
-      <c r="BJ11" s="7"/>
-      <c r="BK11" s="7"/>
-      <c r="BL11" s="7"/>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1426,17 +1586,6 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
       <c r="BA12" s="7"/>
-      <c r="BB12" s="7"/>
-      <c r="BC12" s="7"/>
-      <c r="BD12" s="7"/>
-      <c r="BE12" s="7"/>
-      <c r="BF12" s="7"/>
-      <c r="BG12" s="7"/>
-      <c r="BH12" s="7"/>
-      <c r="BI12" s="7"/>
-      <c r="BJ12" s="7"/>
-      <c r="BK12" s="7"/>
-      <c r="BL12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1446,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,222 +1606,109 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1683,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1918199-7E3A-4323-8C10-36C29A5B5E5C}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" activeCellId="1" sqref="F9 D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,63 +1741,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1791,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78D4517-CBEA-43D4-A710-8B83EE44DC85}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,57 +1848,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1872,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E6C225-5F63-43BC-9993-8FBD6FEAF794}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,113 +1919,43 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2018,21 +1984,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2044,148 +2010,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11E113-21EA-4C4D-A793-3B606F72173F}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" customWidth="1"/>
-    <col min="13" max="13" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.85546875" customWidth="1"/>
-    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CBD94B-4A03-44BE-9B34-689C34C8DA4A}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,51 +2024,116 @@
     <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CBD94B-4A03-44BE-9B34-689C34C8DA4A}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
